--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N2">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O2">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P2">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q2">
-        <v>922.6444566436035</v>
+        <v>973.1585874964414</v>
       </c>
       <c r="R2">
-        <v>922.6444566436035</v>
+        <v>3892.634349985766</v>
       </c>
       <c r="S2">
-        <v>0.1346983585198538</v>
+        <v>0.130742151208126</v>
       </c>
       <c r="T2">
-        <v>0.1346983585198538</v>
+        <v>0.09239085646022091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N3">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O3">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P3">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q3">
-        <v>1215.820305678732</v>
+        <v>1396.028610177346</v>
       </c>
       <c r="R3">
-        <v>1215.820305678732</v>
+        <v>8376.171661064076</v>
       </c>
       <c r="S3">
-        <v>0.1774995755415809</v>
+        <v>0.1875539978660919</v>
       </c>
       <c r="T3">
-        <v>0.1774995755415809</v>
+        <v>0.198806670250539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N4">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O4">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P4">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q4">
-        <v>530.7744433081308</v>
+        <v>605.9801028460566</v>
       </c>
       <c r="R4">
-        <v>530.7744433081308</v>
+        <v>3635.88061707634</v>
       </c>
       <c r="S4">
-        <v>0.07748862060904474</v>
+        <v>0.08141236511022887</v>
       </c>
       <c r="T4">
-        <v>0.07748862060904474</v>
+        <v>0.08629686068511108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N5">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O5">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P5">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q5">
-        <v>686.5204000283768</v>
+        <v>722.950142646984</v>
       </c>
       <c r="R5">
-        <v>686.5204000283768</v>
+        <v>2891.800570587936</v>
       </c>
       <c r="S5">
-        <v>0.1002262250733231</v>
+        <v>0.09712708502018318</v>
       </c>
       <c r="T5">
-        <v>0.1002262250733231</v>
+        <v>0.06863627749412218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H6">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I6">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J6">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N6">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O6">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P6">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q6">
-        <v>96.90129732359865</v>
+        <v>102.649395062522</v>
       </c>
       <c r="R6">
-        <v>96.90129732359865</v>
+        <v>615.8963703751319</v>
       </c>
       <c r="S6">
-        <v>0.01414677733545946</v>
+        <v>0.01379076637982809</v>
       </c>
       <c r="T6">
-        <v>0.01414677733545946</v>
+        <v>0.01461817063549982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H7">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I7">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J7">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N7">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O7">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P7">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q7">
-        <v>127.6922698492433</v>
+        <v>147.253997617528</v>
       </c>
       <c r="R7">
-        <v>127.6922698492433</v>
+        <v>1325.285978557752</v>
       </c>
       <c r="S7">
-        <v>0.01864200128285302</v>
+        <v>0.01978331658362134</v>
       </c>
       <c r="T7">
-        <v>0.01864200128285302</v>
+        <v>0.0314553835795341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N8">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O8">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P8">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q8">
-        <v>55.74490994057533</v>
+        <v>63.91917183518667</v>
       </c>
       <c r="R8">
-        <v>55.74490994057533</v>
+        <v>575.27254651668</v>
       </c>
       <c r="S8">
-        <v>0.008138289685441677</v>
+        <v>0.008587428746503995</v>
       </c>
       <c r="T8">
-        <v>0.008138289685441677</v>
+        <v>0.01365397273209663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N9">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O9">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P9">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q9">
-        <v>72.1022241263653</v>
+        <v>76.257247026912</v>
       </c>
       <c r="R9">
-        <v>72.1022241263653</v>
+        <v>457.543482161472</v>
       </c>
       <c r="S9">
-        <v>0.01052632047536763</v>
+        <v>0.01024502753159377</v>
       </c>
       <c r="T9">
-        <v>0.01052632047536763</v>
+        <v>0.01085969818481533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H10">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I10">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J10">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N10">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O10">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P10">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q10">
-        <v>332.470206786691</v>
+        <v>4.009893281419666</v>
       </c>
       <c r="R10">
-        <v>332.470206786691</v>
+        <v>24.059359688518</v>
       </c>
       <c r="S10">
-        <v>0.04853786395014603</v>
+        <v>0.0005387221368271958</v>
       </c>
       <c r="T10">
-        <v>0.04853786395014603</v>
+        <v>0.0005710438350097847</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H11">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I11">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J11">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N11">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O11">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P11">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q11">
-        <v>438.1146231723458</v>
+        <v>5.752326307905333</v>
       </c>
       <c r="R11">
-        <v>438.1146231723458</v>
+        <v>51.770936771148</v>
       </c>
       <c r="S11">
-        <v>0.06396106339763637</v>
+        <v>0.0007728149611066247</v>
       </c>
       <c r="T11">
-        <v>0.06396106339763637</v>
+        <v>0.001228772280666895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H12">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I12">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J12">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N12">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O12">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P12">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q12">
-        <v>191.2618535266506</v>
+        <v>2.496936855202222</v>
       </c>
       <c r="R12">
-        <v>191.2618535266506</v>
+        <v>22.47243169682</v>
       </c>
       <c r="S12">
-        <v>0.02792262775980247</v>
+        <v>0.0003354590917394389</v>
       </c>
       <c r="T12">
-        <v>0.02792262775980247</v>
+        <v>0.0005333784333533941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H13">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I13">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J13">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N13">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O13">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P13">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q13">
-        <v>247.3841117422798</v>
+        <v>2.978911101488</v>
       </c>
       <c r="R13">
-        <v>247.3841117422798</v>
+        <v>17.873466608928</v>
       </c>
       <c r="S13">
-        <v>0.03611600713106414</v>
+        <v>0.0004002114872851938</v>
       </c>
       <c r="T13">
-        <v>0.03611600713106414</v>
+        <v>0.0004242229655909132</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H14">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I14">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J14">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N14">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O14">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P14">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q14">
-        <v>531.2671353231185</v>
+        <v>1.307433270271333</v>
       </c>
       <c r="R14">
-        <v>531.2671353231185</v>
+        <v>7.844599621628</v>
       </c>
       <c r="S14">
-        <v>0.07756054951426582</v>
+        <v>0.0001756513691731405</v>
       </c>
       <c r="T14">
-        <v>0.07756054951426582</v>
+        <v>0.000186189919850136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H15">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I15">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J15">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N15">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O15">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P15">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q15">
-        <v>700.0804765200304</v>
+        <v>1.875556846178667</v>
       </c>
       <c r="R15">
-        <v>700.0804765200304</v>
+        <v>16.880011615608</v>
       </c>
       <c r="S15">
-        <v>0.1022058826019381</v>
+        <v>0.0002519777762156611</v>
       </c>
       <c r="T15">
-        <v>0.1022058826019381</v>
+        <v>0.0004006435205583086</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H16">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I16">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J16">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N16">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O16">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P16">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q16">
-        <v>305.6247896669011</v>
+        <v>0.8141309728577778</v>
       </c>
       <c r="R16">
-        <v>305.6247896669011</v>
+        <v>7.32717875572</v>
       </c>
       <c r="S16">
-        <v>0.04461865802658704</v>
+        <v>0.000109377069805675</v>
       </c>
       <c r="T16">
-        <v>0.04461865802658704</v>
+        <v>0.0001739090445730106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1458,557 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.219698</v>
+      </c>
+      <c r="I17">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J17">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.262928</v>
+      </c>
+      <c r="N17">
+        <v>26.525856</v>
+      </c>
+      <c r="O17">
+        <v>0.1954913963002474</v>
+      </c>
+      <c r="P17">
+        <v>0.1538479259457462</v>
+      </c>
+      <c r="Q17">
+        <v>0.9712795852480001</v>
+      </c>
+      <c r="R17">
+        <v>5.827677511488</v>
+      </c>
+      <c r="S17">
+        <v>0.0001304897105481529</v>
+      </c>
+      <c r="T17">
+        <v>0.0001383186983545768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H18">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J18">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.853143</v>
+      </c>
+      <c r="N18">
+        <v>35.706286</v>
+      </c>
+      <c r="O18">
+        <v>0.263149724813253</v>
+      </c>
+      <c r="P18">
+        <v>0.2070937143112604</v>
+      </c>
+      <c r="Q18">
+        <v>337.2680329715107</v>
+      </c>
+      <c r="R18">
+        <v>2023.608197829064</v>
+      </c>
+      <c r="S18">
+        <v>0.04531136931943246</v>
+      </c>
+      <c r="T18">
+        <v>0.04802991437868678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H19">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J19">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>25.610932</v>
+      </c>
+      <c r="N19">
+        <v>76.832796</v>
+      </c>
+      <c r="O19">
+        <v>0.3774970999790309</v>
+      </c>
+      <c r="P19">
+        <v>0.4456243112083781</v>
+      </c>
+      <c r="Q19">
+        <v>483.8222971835895</v>
+      </c>
+      <c r="R19">
+        <v>4354.400674652305</v>
+      </c>
+      <c r="S19">
+        <v>0.06500067794599924</v>
+      </c>
+      <c r="T19">
+        <v>0.1033507829225114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H20">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J20">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.11704666666667</v>
+      </c>
+      <c r="N20">
+        <v>33.35114</v>
+      </c>
+      <c r="O20">
+        <v>0.1638617789074688</v>
+      </c>
+      <c r="P20">
+        <v>0.1934340485346152</v>
+      </c>
+      <c r="Q20">
+        <v>210.0148114939289</v>
+      </c>
+      <c r="R20">
+        <v>1890.13330344536</v>
+      </c>
+      <c r="S20">
+        <v>0.02821512196786296</v>
+      </c>
+      <c r="T20">
+        <v>0.04486191587194467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H17">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I17">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J17">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>13.2557168645223</v>
-      </c>
-      <c r="N17">
-        <v>13.2557168645223</v>
-      </c>
-      <c r="O17">
-        <v>0.2045797317753906</v>
-      </c>
-      <c r="P17">
-        <v>0.2045797317753906</v>
-      </c>
-      <c r="Q17">
-        <v>395.3047391524537</v>
-      </c>
-      <c r="R17">
-        <v>395.3047391524537</v>
-      </c>
-      <c r="S17">
-        <v>0.0577111790956357</v>
-      </c>
-      <c r="T17">
-        <v>0.0577111790956357</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H21">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J21">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.262928</v>
+      </c>
+      <c r="N21">
+        <v>26.525856</v>
+      </c>
+      <c r="O21">
+        <v>0.1954913963002474</v>
+      </c>
+      <c r="P21">
+        <v>0.1538479259457462</v>
+      </c>
+      <c r="Q21">
+        <v>250.553173634624</v>
+      </c>
+      <c r="R21">
+        <v>1503.319041807744</v>
+      </c>
+      <c r="S21">
+        <v>0.03366137989624805</v>
+      </c>
+      <c r="T21">
+        <v>0.03568096083981893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>30.264707</v>
+      </c>
+      <c r="H22">
+        <v>60.529414</v>
+      </c>
+      <c r="I22">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J22">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.853143</v>
+      </c>
+      <c r="N22">
+        <v>35.706286</v>
+      </c>
+      <c r="O22">
+        <v>0.263149724813253</v>
+      </c>
+      <c r="P22">
+        <v>0.2070937143112604</v>
+      </c>
+      <c r="Q22">
+        <v>540.320141924101</v>
+      </c>
+      <c r="R22">
+        <v>2161.280567696404</v>
+      </c>
+      <c r="S22">
+        <v>0.07259106439986612</v>
+      </c>
+      <c r="T22">
+        <v>0.051297539081993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>30.264707</v>
+      </c>
+      <c r="H23">
+        <v>60.529414</v>
+      </c>
+      <c r="I23">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J23">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.610932</v>
+      </c>
+      <c r="N23">
+        <v>76.832796</v>
+      </c>
+      <c r="O23">
+        <v>0.3774970999790309</v>
+      </c>
+      <c r="P23">
+        <v>0.4456243112083781</v>
+      </c>
+      <c r="Q23">
+        <v>775.1073529769241</v>
+      </c>
+      <c r="R23">
+        <v>4650.644117861544</v>
+      </c>
+      <c r="S23">
+        <v>0.1041343148459961</v>
+      </c>
+      <c r="T23">
+        <v>0.1103820586545684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>30.264707</v>
+      </c>
+      <c r="H24">
+        <v>60.529414</v>
+      </c>
+      <c r="I24">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J24">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.11704666666667</v>
+      </c>
+      <c r="N24">
+        <v>33.35114</v>
+      </c>
+      <c r="O24">
+        <v>0.1638617789074688</v>
+      </c>
+      <c r="P24">
+        <v>0.1934340485346152</v>
+      </c>
+      <c r="Q24">
+        <v>336.4541600719934</v>
+      </c>
+      <c r="R24">
+        <v>2018.72496043196</v>
+      </c>
+      <c r="S24">
+        <v>0.04520202692132791</v>
+      </c>
+      <c r="T24">
+        <v>0.0479140117675364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30.264707</v>
+      </c>
+      <c r="H25">
+        <v>60.529414</v>
+      </c>
+      <c r="I25">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J25">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.262928</v>
+      </c>
+      <c r="N25">
+        <v>26.525856</v>
+      </c>
+      <c r="O25">
+        <v>0.1954913963002474</v>
+      </c>
+      <c r="P25">
+        <v>0.1538479259457462</v>
+      </c>
+      <c r="Q25">
+        <v>401.398629882096</v>
+      </c>
+      <c r="R25">
+        <v>1605.594519528384</v>
+      </c>
+      <c r="S25">
+        <v>0.05392720265438906</v>
+      </c>
+      <c r="T25">
+        <v>0.03810844776304426</v>
       </c>
     </row>
   </sheetData>
